--- a/Doccument/Prototype-design-ver1.4.xlsx
+++ b/Doccument/Prototype-design-ver1.4.xlsx
@@ -33,6 +33,7 @@
     <sheet name="Hotel Management Screen" sheetId="35" r:id="rId19"/>
     <sheet name="Service Management Screen" sheetId="22" r:id="rId20"/>
     <sheet name="Room Management Screen" sheetId="25" r:id="rId21"/>
+    <sheet name="Result Screen" sheetId="36" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2. History Of Change'!$A$1:$AL$10</definedName>
@@ -42,7 +43,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="18">'Hotel Management Screen'!$A$1:$O$164</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'Location Management Screen'!$A$1:$J$124</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="20">'Room Management Screen'!$A$1:$J$124</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Screen List'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Screen List'!$A$1:$H$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">'Service Management Screen'!$A$1:$J$124</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'User Management Screen'!$A$1:$J$123</definedName>
   </definedNames>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="72">
   <si>
     <t>Version</t>
   </si>
@@ -261,6 +262,18 @@
   </si>
   <si>
     <t>Add Data Authorization, System setting, System Information, Hotel Management</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>2016 Sep 12th</t>
+  </si>
+  <si>
+    <t>Result Screen</t>
+  </si>
+  <si>
+    <t>Add Result Screen</t>
   </si>
 </sst>
 </file>
@@ -565,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -624,8 +637,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -639,6 +664,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,6 +678,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -660,18 +697,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,15 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,7 +1055,7 @@
               <a:cs typeface="Arial" charset="-122"/>
               <a:sym typeface="Arial" charset="-122"/>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>5</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2263,6 +2279,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="762000"/>
+          <a:ext cx="7772400" cy="9438996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2476,7 +2541,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4547,10 +4612,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4560,8 +4625,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4609,10 +4674,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4622,8 +4687,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4669,10 +4734,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4682,8 +4747,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4731,10 +4796,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4744,8 +4809,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4793,10 +4858,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4806,8 +4871,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4853,10 +4918,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4866,8 +4931,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4916,10 +4981,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4929,8 +4994,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4978,10 +5043,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4991,8 +5056,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -5041,10 +5106,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -5054,8 +5119,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -5103,10 +5168,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -5116,8 +5181,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -5141,7 +5206,7 @@
   <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5164,153 +5229,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
     </row>
     <row r="3" spans="1:41" ht="30.75" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="33" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="35" t="s">
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
       <c r="AL3" s="2" t="s">
         <v>10</v>
       </c>
@@ -5319,230 +5384,279 @@
       <c r="AO3" s="1"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="47" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="48" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="48" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="46" t="s">
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
     </row>
     <row r="5" spans="1:41" ht="33.75" customHeight="1">
-      <c r="A5" s="39">
+      <c r="A5" s="45">
         <v>1.2</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="33" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="42" t="s">
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="44"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="52"/>
     </row>
     <row r="6" spans="1:41" ht="30.75" customHeight="1">
-      <c r="A6" s="33">
+      <c r="A6" s="34">
         <v>1.3</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="33" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="41" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="45" t="s">
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="36" t="s">
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="38"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="42"/>
     </row>
     <row r="7" spans="1:41" ht="30.75" customHeight="1">
-      <c r="A7" s="33">
+      <c r="A7" s="34">
         <v>1.4</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="32" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="35" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="36" t="s">
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="38"/>
-    </row>
-    <row r="8" spans="1:41">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="42"/>
+    </row>
+    <row r="8" spans="1:41" ht="30.75" customHeight="1">
+      <c r="A8" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="42"/>
     </row>
     <row r="9" spans="1:41">
       <c r="C9" s="3"/>
@@ -5653,25 +5767,12 @@
       <c r="F26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="R1:AK2"/>
-    <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="R3:AK3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="R4:AK4"/>
+  <mergeCells count="40">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="R7:AK7"/>
+    <mergeCell ref="AL7:AO7"/>
     <mergeCell ref="AL6:AO6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
@@ -5684,11 +5785,29 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:Q6"/>
     <mergeCell ref="R6:AK6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="R7:AK7"/>
-    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="R3:AK3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="R4:AK4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="R1:AK2"/>
+    <mergeCell ref="AL1:AO2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="R8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5700,7 +5819,7 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A87" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
@@ -5725,10 +5844,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -5738,8 +5857,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -5762,7 +5881,9 @@
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5786,10 +5907,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -5799,8 +5920,67 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="4" max="5" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -5823,8 +6003,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6191,7 +6371,13 @@
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36" s="18"/>
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5">
@@ -6292,6 +6478,7 @@
     <hyperlink ref="C12" location="'System setting Screen'!A1" display="System Setting"/>
     <hyperlink ref="C13" location="'System Infomation Screen'!A1" display="System Information"/>
     <hyperlink ref="C17" location="'Hotel Management Screen'!A1" display="Hotel Management"/>
+    <hyperlink ref="C36" location="'Result Screen'!A1" display="Result"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6328,10 +6515,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -6341,8 +6528,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -6388,10 +6575,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -6401,8 +6588,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -6448,10 +6635,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -6461,8 +6648,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -6509,10 +6696,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -6522,8 +6709,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -6570,10 +6757,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -6583,8 +6770,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
@@ -6607,7 +6794,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6630,10 +6817,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -6643,8 +6830,8 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>22</v>
       </c>

--- a/Doccument/Prototype-design-ver1.4.xlsx
+++ b/Doccument/Prototype-design-ver1.4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NhatNH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Hai Ly\Desktop\HotelBooking\Doccument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="924" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,27 @@
     <sheet name="Function Authorization" sheetId="31" r:id="rId11"/>
     <sheet name="User Management Screen" sheetId="10" r:id="rId12"/>
     <sheet name="Data Authorization Screen" sheetId="32" r:id="rId13"/>
-    <sheet name="System setting Screen" sheetId="33" r:id="rId14"/>
-    <sheet name="System Infomation Screen" sheetId="34" r:id="rId15"/>
-    <sheet name="City Management Screen" sheetId="13" r:id="rId16"/>
-    <sheet name="District Management Screen" sheetId="16" r:id="rId17"/>
-    <sheet name="Location Management Screen" sheetId="19" r:id="rId18"/>
-    <sheet name="Hotel Management Screen" sheetId="35" r:id="rId19"/>
-    <sheet name="Service Management Screen" sheetId="22" r:id="rId20"/>
-    <sheet name="Room Management Screen" sheetId="25" r:id="rId21"/>
-    <sheet name="Result Screen" sheetId="36" r:id="rId22"/>
+    <sheet name="Data Authorization Add" sheetId="37" r:id="rId14"/>
+    <sheet name="System setting Screen" sheetId="33" r:id="rId15"/>
+    <sheet name="System Infomation Screen" sheetId="34" r:id="rId16"/>
+    <sheet name="City Management Screen" sheetId="13" r:id="rId17"/>
+    <sheet name="District Management Screen" sheetId="16" r:id="rId18"/>
+    <sheet name="Location Management Screen" sheetId="19" r:id="rId19"/>
+    <sheet name="Hotel Management Screen" sheetId="35" r:id="rId20"/>
+    <sheet name="Service Management Screen" sheetId="22" r:id="rId21"/>
+    <sheet name="Room Management Screen" sheetId="25" r:id="rId22"/>
+    <sheet name="Result Screen" sheetId="36" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2. History Of Change'!$A$1:$AL$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'City Management Screen'!$A$1:$J$124</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'District Management Screen'!$A$1:$J$125</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'City Management Screen'!$A$1:$J$124</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'District Management Screen'!$A$1:$J$125</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Function Management Screen'!$A$1:$J$166</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'Hotel Management Screen'!$A$1:$O$164</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">'Location Management Screen'!$A$1:$J$124</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">'Room Management Screen'!$A$1:$J$124</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'Hotel Management Screen'!$A$1:$O$164</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'Location Management Screen'!$A$1:$J$124</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">'Room Management Screen'!$A$1:$J$124</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Screen List'!$A$1:$H$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">'Service Management Screen'!$A$1:$J$124</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'Service Management Screen'!$A$1:$J$124</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'User Management Screen'!$A$1:$J$123</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="73">
   <si>
     <t>Version</t>
   </si>
@@ -274,6 +275,9 @@
   </si>
   <si>
     <t>Add Result Screen</t>
+  </si>
+  <si>
+    <t>chuan bi lam</t>
   </si>
 </sst>
 </file>
@@ -288,7 +292,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +324,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -334,7 +338,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -664,12 +668,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,12 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -696,6 +688,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3069,7 +3073,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
@@ -4591,14 +4595,14 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -4652,7 +4656,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -4660,7 +4664,7 @@
     <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -4713,14 +4717,14 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="4" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -4774,7 +4778,7 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -4782,7 +4786,7 @@
     <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -4830,13 +4834,33 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -4844,7 +4868,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -4863,66 +4887,6 @@
       </c>
       <c r="B2" s="56" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -4952,22 +4916,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:E3"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -4976,7 +4937,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4"/>
     </row>
@@ -4985,7 +4946,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -5015,21 +4976,22 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet17"/>
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="4" max="5" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -5047,7 +5009,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -5077,22 +5039,21 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet20"/>
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="4" max="5" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -5110,7 +5071,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -5140,21 +5101,22 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -5163,7 +5125,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4"/>
     </row>
@@ -5172,7 +5134,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -5209,7 +5171,7 @@
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="9" hidden="1" customWidth="1"/>
@@ -5229,131 +5191,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43" t="s">
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
     </row>
     <row r="3" spans="1:41" ht="30.75" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="34"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="34"/>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
       <c r="R3" s="39" t="s">
         <v>9</v>
       </c>
@@ -5384,21 +5346,21 @@
       <c r="AO3" s="1"/>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="48" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="51" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="52" t="s">
         <v>64</v>
       </c>
       <c r="J4" s="39"/>
@@ -5409,7 +5371,7 @@
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="52" t="s">
         <v>65</v>
       </c>
       <c r="S4" s="39"/>
@@ -5431,7 +5393,7 @@
       <c r="AI4" s="39"/>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="39"/>
-      <c r="AL4" s="44" t="s">
+      <c r="AL4" s="50" t="s">
         <v>12</v>
       </c>
       <c r="AM4" s="34"/>
@@ -5439,32 +5401,32 @@
       <c r="AO4" s="34"/>
     </row>
     <row r="5" spans="1:41" ht="33.75" customHeight="1">
-      <c r="A5" s="45">
+      <c r="A5" s="43">
         <v>1.2</v>
       </c>
       <c r="B5" s="34"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="34" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45" t="s">
         <v>61</v>
       </c>
       <c r="S5" s="39"/>
@@ -5486,61 +5448,61 @@
       <c r="AI5" s="39"/>
       <c r="AJ5" s="39"/>
       <c r="AK5" s="39"/>
-      <c r="AL5" s="50" t="s">
+      <c r="AL5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="52"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="48"/>
     </row>
     <row r="6" spans="1:41" ht="30.75" customHeight="1">
       <c r="A6" s="34">
         <v>1.3</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="34" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="34"/>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="53" t="s">
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
       <c r="AL6" s="40" t="s">
         <v>14</v>
       </c>
@@ -5768,11 +5730,29 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="R7:AK7"/>
-    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="R8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="R1:AK2"/>
+    <mergeCell ref="AL1:AO2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="R3:AK3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="R4:AK4"/>
     <mergeCell ref="AL6:AO6"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
@@ -5785,29 +5765,11 @@
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:Q6"/>
     <mergeCell ref="R6:AK6"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="R3:AK3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="R4:AK4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="R1:AK2"/>
-    <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="R8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="R7:AK7"/>
+    <mergeCell ref="AL7:AO7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5816,21 +5778,21 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A87" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="26.875" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -5839,7 +5801,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4"/>
     </row>
@@ -5848,7 +5810,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
@@ -5878,22 +5840,21 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet26"/>
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A87" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -5911,12 +5872,12 @@
         <v>18</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
@@ -5941,18 +5902,81 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet26"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="4" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -6007,14 +6031,14 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -6028,7 +6052,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -6040,7 +6064,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -6050,7 +6074,7 @@
       </c>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -6060,7 +6084,7 @@
       </c>
       <c r="E4" s="18"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -6070,7 +6094,7 @@
       </c>
       <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -6080,7 +6104,7 @@
       </c>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -6090,7 +6114,7 @@
       </c>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -6100,7 +6124,7 @@
       </c>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -6110,7 +6134,7 @@
       </c>
       <c r="E9" s="18"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -6120,7 +6144,7 @@
       </c>
       <c r="E10" s="18"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -6130,7 +6154,7 @@
       </c>
       <c r="E11" s="18"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -6140,7 +6164,7 @@
       </c>
       <c r="E12" s="18"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -6150,7 +6174,7 @@
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -6160,7 +6184,7 @@
       </c>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -6170,7 +6194,7 @@
       </c>
       <c r="E15" s="18"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -6180,7 +6204,7 @@
       </c>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -6190,7 +6214,7 @@
       </c>
       <c r="E17" s="18"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -6200,7 +6224,7 @@
       </c>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -6210,7 +6234,7 @@
       </c>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -6220,7 +6244,7 @@
       </c>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -6230,7 +6254,7 @@
       </c>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="15">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -6240,7 +6264,7 @@
       </c>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -6250,7 +6274,7 @@
       </c>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -6260,7 +6284,7 @@
       </c>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -6270,7 +6294,7 @@
       </c>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -6280,7 +6304,7 @@
       </c>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="15">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -6290,7 +6314,7 @@
       </c>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -6300,7 +6324,7 @@
       </c>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -6310,7 +6334,7 @@
       </c>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -6320,7 +6344,7 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -6330,7 +6354,7 @@
       </c>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -6340,7 +6364,7 @@
       </c>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="15">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -6350,7 +6374,7 @@
       </c>
       <c r="E33" s="18"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -6360,7 +6384,7 @@
       </c>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="15">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -6370,7 +6394,7 @@
       </c>
       <c r="E35" s="18"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="15">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -6380,63 +6404,63 @@
       </c>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="15">
       <c r="B37" s="18"/>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="15">
       <c r="B38" s="18"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="15">
       <c r="B39" s="18"/>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="15">
       <c r="B40" s="18"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="15">
       <c r="B41" s="18"/>
       <c r="E41" s="19"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="15">
       <c r="B42" s="18"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="15">
       <c r="B43" s="18"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="15">
       <c r="B44" s="18"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="15">
       <c r="B45" s="18"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="15">
       <c r="B46" s="18"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="15">
       <c r="B47" s="19"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="15">
       <c r="B48" s="19"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" ht="15">
       <c r="B49" s="19"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" ht="15">
       <c r="B50" s="19"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" ht="15">
       <c r="B51" s="19"/>
       <c r="E51"/>
     </row>
@@ -6494,14 +6518,14 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -6554,14 +6578,14 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="4" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -6614,14 +6638,14 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -6674,7 +6698,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -6735,7 +6759,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -6743,7 +6767,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -6796,14 +6820,14 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
